--- a/doc/02 表结构/PSI_LCAP_表结构说明.xlsx
+++ b/doc/02 表结构/PSI_LCAP_表结构说明.xlsx
@@ -24,19 +24,20 @@
     <sheet name="t_fv_cols" sheetId="115" r:id="rId15"/>
     <sheet name="t_fv_qc" sheetId="116" r:id="rId16"/>
     <sheet name="t_fv_md" sheetId="72" r:id="rId17"/>
-    <sheet name="t_sysdict_editor_xtype" sheetId="97" r:id="rId18"/>
-    <sheet name="t_sysdict_form_editor_xtype" sheetId="108" r:id="rId19"/>
-    <sheet name="t_sysdict_fv_xtype" sheetId="114" r:id="rId20"/>
-    <sheet name="t_sysdict_sln0000_gender" sheetId="118" r:id="rId21"/>
-    <sheet name="t_sysdict_sln0000_org_type" sheetId="117" r:id="rId22"/>
-    <sheet name="t_sysdict_record_status" sheetId="96" r:id="rId23"/>
+    <sheet name="t_solution" sheetId="119" r:id="rId18"/>
+    <sheet name="t_sysdict_editor_xtype" sheetId="97" r:id="rId19"/>
+    <sheet name="t_sysdict_form_editor_xtype" sheetId="108" r:id="rId20"/>
+    <sheet name="t_sysdict_fv_xtype" sheetId="114" r:id="rId21"/>
+    <sheet name="t_sysdict_sln0000_gender" sheetId="118" r:id="rId22"/>
+    <sheet name="t_sysdict_sln0000_org_type" sheetId="117" r:id="rId23"/>
+    <sheet name="t_sysdict_record_status" sheetId="96" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="624">
   <si>
     <t>KEY</t>
   </si>
@@ -1491,10 +1492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t_form_md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>form_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5185,110 +5182,6 @@
         <charset val="134"/>
       </rPr>
       <t>性别</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>码表列元数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>码表元数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统数据字典元数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单元数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视图元数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视图列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视图查询条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统数据字典</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>码表字段编辑器类型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统数据字典</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表单字段编辑器类型</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6005,6 +5898,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>t_sysdict_ct_editor_xtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sysdict_ct_record_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sysdict_sln0000_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sysdict_sln0000_org_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>PSI</t>
     </r>
@@ -6048,7 +5965,248 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> - V20211219</t>
+      <t xml:space="preserve"> - V20211231</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_code_table_buttons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码表默认视图上的业务按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_code_table_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码表分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_code_table_cols_md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码表列元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_code_table_md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码表元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_dict_table_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统数据字典分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_dict_table_md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统数据字典元数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_form_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_form_cols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主表列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_form_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明细表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_form_detail_cols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明细表的列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_form_md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_fv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图元数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_fv_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_fv_cols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_fv_qc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图查询条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解决方案</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6057,15 +6215,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统数据字典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码表字段编辑器类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>t_sysdict_ct_record_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统数据字典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sysdict_form_editor_xtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统数据字典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表单字段编辑器类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_sysdict_fv_xtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统数据字典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>xtype</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>t_sysdict_sln0000_gender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统数据字典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性别</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>t_sysdict_sln0000_org_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统数据字典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织机构性质</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6317,7 +6684,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6660,9 +7027,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6708,7 +7072,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6717,19 +7081,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6740,6 +7101,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7045,7 +7409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D24"/>
+  <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7059,21 +7423,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36" customHeight="1">
-      <c r="B1" s="115" t="s">
-        <v>581</v>
-      </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
+      <c r="B1" s="114" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
     </row>
     <row r="2" spans="2:4" ht="24.95" customHeight="1">
       <c r="B2" s="113" t="s">
-        <v>13</v>
+        <v>575</v>
       </c>
       <c r="C2" s="113" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="24.95" customHeight="1">
@@ -7081,10 +7445,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>323</v>
+        <v>578</v>
       </c>
       <c r="D3" s="112" t="s">
-        <v>345</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24.95" customHeight="1">
@@ -7092,10 +7456,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>580</v>
       </c>
       <c r="D4" s="112" t="s">
-        <v>163</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="24.95" customHeight="1">
@@ -7103,10 +7467,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>582</v>
       </c>
       <c r="D5" s="112" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.95" customHeight="1">
@@ -7114,10 +7478,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>584</v>
       </c>
       <c r="D6" s="112" t="s">
-        <v>515</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24.95" customHeight="1">
@@ -7125,10 +7489,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>586</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>72</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.95" customHeight="1">
@@ -7136,10 +7500,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>588</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>516</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24.95" customHeight="1">
@@ -7147,10 +7511,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>172</v>
+        <v>590</v>
       </c>
       <c r="D9" s="112" t="s">
-        <v>173</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24.95" customHeight="1">
@@ -7158,10 +7522,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>263</v>
+        <v>592</v>
       </c>
       <c r="D10" s="112" t="s">
-        <v>517</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24.95" customHeight="1">
@@ -7169,10 +7533,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>177</v>
+        <v>594</v>
       </c>
       <c r="D11" s="112" t="s">
-        <v>179</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.95" customHeight="1">
@@ -7180,10 +7544,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>189</v>
+        <v>596</v>
       </c>
       <c r="D12" s="112" t="s">
-        <v>190</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.95" customHeight="1">
@@ -7191,10 +7555,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>194</v>
+        <v>598</v>
       </c>
       <c r="D13" s="112" t="s">
-        <v>195</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.95" customHeight="1">
@@ -7202,10 +7566,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>174</v>
+        <v>600</v>
       </c>
       <c r="D14" s="112" t="s">
-        <v>518</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="24.95" customHeight="1">
@@ -7213,10 +7577,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>352</v>
+        <v>602</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>519</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="24.95" customHeight="1">
@@ -7224,10 +7588,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>350</v>
+        <v>604</v>
       </c>
       <c r="D16" s="112" t="s">
-        <v>351</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="24.95" customHeight="1">
@@ -7235,10 +7599,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>384</v>
+        <v>606</v>
       </c>
       <c r="D17" s="112" t="s">
-        <v>520</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24.95" customHeight="1">
@@ -7246,10 +7610,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="D18" s="112" t="s">
-        <v>521</v>
+        <v>609</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="24.95" customHeight="1">
@@ -7257,21 +7621,21 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="114" customFormat="1" ht="24.95" customHeight="1">
+        <v>610</v>
+      </c>
+      <c r="D19" s="112" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="24.95" customHeight="1">
       <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>133</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="24.95" customHeight="1">
@@ -7279,10 +7643,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>199</v>
+        <v>614</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>523</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="24.95" customHeight="1">
@@ -7290,10 +7654,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>355</v>
+        <v>616</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>357</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.95" customHeight="1">
@@ -7301,10 +7665,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>511</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="24.95" customHeight="1">
@@ -7312,10 +7676,21 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>456</v>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -7329,23 +7704,24 @@
     <hyperlink ref="C4" location="t_code_table_category!A1" display="t_code_table_category"/>
     <hyperlink ref="C6" location="t_code_table_md!A1" display="t_code_table_md"/>
     <hyperlink ref="C5" location="t_code_table_cols_md!A1" display="t_code_table_cols_md"/>
-    <hyperlink ref="C19" location="t_sysdict_editor_xtype!A1" display="t_sysdict_editor_xtype!A1"/>
+    <hyperlink ref="C20" location="t_sysdict_editor_xtype!A1" display="t_sysdict_editor_xtype!A1"/>
     <hyperlink ref="C9" location="t_form_category!A1" display="t_form_category"/>
     <hyperlink ref="C14" location="t_form_md!A1" display="t_form_md"/>
     <hyperlink ref="C10" location="t_form!A1" display="t_form"/>
     <hyperlink ref="C11" location="t_form_cols!A1" display="t_form_cols"/>
     <hyperlink ref="C12" location="t_form_detail!A1" display="t_form_detail"/>
     <hyperlink ref="C13" location="t_form_detail_cols!A1" display="t_form_detail_cols"/>
-    <hyperlink ref="C21" location="t_sysdict_form_editor_xtype!A1" display="t_sysdict_form_editor_xtype"/>
+    <hyperlink ref="C22" location="t_sysdict_form_editor_xtype!A1" display="t_sysdict_form_editor_xtype"/>
     <hyperlink ref="C3" location="t_code_table_buttons!A1" display="t_code_table_buttons"/>
     <hyperlink ref="C16" location="t_fv_category!A1" display="t_fv_category"/>
     <hyperlink ref="C15" location="t_fv!A1" display="t_fv"/>
-    <hyperlink ref="C22" location="t_sysdict_fv_xtype!A1" display="t_sysdict_fv_xtype"/>
+    <hyperlink ref="C23" location="t_sysdict_fv_xtype!A1" display="t_sysdict_fv_xtype"/>
     <hyperlink ref="C17" location="t_fv_cols!A1" display="t_fv_cols"/>
     <hyperlink ref="C18" location="t_fv_qc!A1" display="t_fv_qc"/>
-    <hyperlink ref="C24" location="t_sysdict_org_type!A1" display="t_sysdict_org_type"/>
-    <hyperlink ref="C23" location="t_sysdict_gender!A1" display="t_sysdict_gender"/>
-    <hyperlink ref="C20" location="t_sysdict_record_status!A1" display="t_sysdict_record_status"/>
+    <hyperlink ref="C25" location="t_sysdict_org_type!A1" display="t_sysdict_org_type"/>
+    <hyperlink ref="C24" location="t_sysdict_gender!A1" display="t_sysdict_gender"/>
+    <hyperlink ref="C21" location="t_sysdict_record_status!A1" display="t_sysdict_record_status"/>
+    <hyperlink ref="C19" location="t_solution!A1" display="t_solution"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -7375,36 +7751,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="62" t="s">
@@ -7425,25 +7801,25 @@
       <c r="G4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
-        <v>201</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="H4" s="122" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="61" t="s">
         <v>202</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>203</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -7451,424 +7827,424 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="E6" s="61" t="s">
         <v>205</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>206</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+        <v>206</v>
+      </c>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="E7" s="61" t="s">
         <v>209</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>210</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+        <v>210</v>
+      </c>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="61" t="s">
-        <v>213</v>
-      </c>
       <c r="E8" s="61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+        <v>210</v>
+      </c>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="E9" s="61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+        <v>210</v>
+      </c>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="61" t="s">
         <v>217</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>218</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+        <v>210</v>
+      </c>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="E11" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+        <v>210</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="E12" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H12" s="118" t="s">
-        <v>223</v>
-      </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
+        <v>210</v>
+      </c>
+      <c r="H12" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="E13" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H13" s="129"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="127"/>
+        <v>210</v>
+      </c>
+      <c r="H13" s="128"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
     </row>
     <row r="14" spans="2:11" ht="87.75" customHeight="1">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="E14" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" s="117" t="s">
-        <v>228</v>
-      </c>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
+        <v>210</v>
+      </c>
+      <c r="H14" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="E15" s="61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
+        <v>230</v>
+      </c>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="E16" s="61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>234</v>
-      </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
+        <v>230</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
     </row>
     <row r="17" spans="2:11" ht="24.95" customHeight="1">
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="E17" s="61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="118" t="s">
-        <v>237</v>
-      </c>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
+        <v>230</v>
+      </c>
+      <c r="H17" s="117" t="s">
+        <v>236</v>
+      </c>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
     </row>
     <row r="18" spans="2:11" ht="82.5" customHeight="1">
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="E18" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H18" s="116" t="s">
         <v>240</v>
       </c>
-      <c r="H18" s="117" t="s">
-        <v>241</v>
-      </c>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
     </row>
     <row r="19" spans="2:11" ht="59.25" customHeight="1">
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="61" t="s">
         <v>243</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>244</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H19" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="130" t="s">
-        <v>246</v>
-      </c>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="132"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
     </row>
     <row r="20" spans="2:11" ht="54" customHeight="1">
       <c r="B20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="E20" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H20" s="130" t="s">
-        <v>249</v>
-      </c>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="132"/>
+        <v>244</v>
+      </c>
+      <c r="H20" s="132" t="s">
+        <v>248</v>
+      </c>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="131"/>
     </row>
     <row r="21" spans="2:11" ht="24.95" customHeight="1">
       <c r="B21" s="2">
         <v>17</v>
       </c>
       <c r="C21" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="61" t="s">
         <v>251</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>252</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
+        <v>252</v>
+      </c>
+      <c r="H21" s="132"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="131"/>
     </row>
     <row r="22" spans="2:11" ht="91.5" customHeight="1">
       <c r="B22" s="2">
         <v>18</v>
       </c>
       <c r="C22" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="E22" s="61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H22" s="130" t="s">
-        <v>256</v>
-      </c>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
+        <v>244</v>
+      </c>
+      <c r="H22" s="132" t="s">
+        <v>255</v>
+      </c>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
     </row>
     <row r="23" spans="2:11" ht="59.25" customHeight="1">
       <c r="B23" s="2">
         <v>19</v>
       </c>
       <c r="C23" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="E23" s="61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H23" s="132" t="s">
         <v>259</v>
       </c>
-      <c r="H23" s="130" t="s">
-        <v>260</v>
-      </c>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
     </row>
     <row r="24" spans="2:11" s="67" customFormat="1" ht="24.95" customHeight="1">
       <c r="B24" s="2">
@@ -7878,7 +8254,7 @@
         <v>128</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E24" s="68" t="s">
         <v>17</v>
@@ -7887,12 +8263,12 @@
       <c r="G24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="130" t="s">
-        <v>301</v>
-      </c>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="132"/>
+      <c r="H24" s="132" t="s">
+        <v>300</v>
+      </c>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
     </row>
     <row r="25" spans="2:11" s="70" customFormat="1" ht="40.15" customHeight="1">
       <c r="B25" s="2">
@@ -7902,48 +8278,50 @@
         <v>151</v>
       </c>
       <c r="D25" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="69" t="s">
         <v>304</v>
-      </c>
-      <c r="E25" s="69" t="s">
-        <v>305</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="129" t="s">
         <v>306</v>
       </c>
-      <c r="H25" s="134" t="s">
-        <v>307</v>
-      </c>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="132"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="131"/>
     </row>
     <row r="27" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C27" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
+      <c r="C27" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
     </row>
     <row r="29" spans="2:11" ht="24.95" customHeight="1">
       <c r="C29" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
@@ -7957,14 +8335,12 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H13:K13"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7998,36 +8374,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="136" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="51" t="s">
@@ -8048,12 +8424,12 @@
       <c r="G4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -8074,20 +8450,20 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>175</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>176</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>24</v>
@@ -8096,10 +8472,10 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -8109,7 +8485,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>24</v>
@@ -8118,10 +8494,10 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -8140,20 +8516,20 @@
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="E9" s="50" t="s">
         <v>24</v>
@@ -8162,10 +8538,10 @@
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
@@ -8184,25 +8560,25 @@
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="118" t="s">
+      <c r="H10" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="C14" s="4" t="s">
@@ -8211,18 +8587,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8256,36 +8632,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="136" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="56" t="s">
@@ -8306,12 +8682,12 @@
       <c r="G4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -8332,20 +8708,20 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="57" t="s">
         <v>196</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>197</v>
       </c>
       <c r="E6" s="55" t="s">
         <v>24</v>
@@ -8354,10 +8730,10 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -8376,10 +8752,10 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -8398,10 +8774,10 @@
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
@@ -8420,10 +8796,10 @@
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
@@ -8442,10 +8818,10 @@
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
@@ -8464,10 +8840,10 @@
       <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="2">
@@ -8477,7 +8853,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="55" t="s">
         <v>17</v>
@@ -8486,12 +8862,12 @@
       <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="118" t="s">
+      <c r="H12" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="2">
@@ -8501,7 +8877,7 @@
         <v>128</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>17</v>
@@ -8510,10 +8886,10 @@
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="129"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="127"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
     </row>
     <row r="14" spans="2:11" ht="87.75" customHeight="1">
       <c r="B14" s="2">
@@ -8532,12 +8908,12 @@
       <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
+      <c r="H14" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="2">
@@ -8556,10 +8932,10 @@
       <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="2">
@@ -8578,12 +8954,12 @@
       <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
+      <c r="H16" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
     </row>
     <row r="17" spans="2:11" ht="24.95" customHeight="1">
       <c r="B17" s="2">
@@ -8593,7 +8969,7 @@
         <v>166</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" s="55" t="s">
         <v>24</v>
@@ -8602,12 +8978,12 @@
       <c r="G17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
+      <c r="H17" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
     </row>
     <row r="18" spans="2:11" ht="82.5" customHeight="1">
       <c r="B18" s="2">
@@ -8617,7 +8993,7 @@
         <v>118</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E18" s="55" t="s">
         <v>17</v>
@@ -8626,12 +9002,12 @@
       <c r="G18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="117" t="s">
+      <c r="H18" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
     </row>
     <row r="19" spans="2:11" ht="59.25" customHeight="1">
       <c r="B19" s="2">
@@ -8641,7 +9017,7 @@
         <v>69</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E19" s="55" t="s">
         <v>17</v>
@@ -8650,12 +9026,12 @@
       <c r="G19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="132"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
     </row>
     <row r="20" spans="2:11" ht="54" customHeight="1">
       <c r="B20" s="2">
@@ -8665,7 +9041,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" s="55" t="s">
         <v>17</v>
@@ -8674,12 +9050,12 @@
       <c r="G20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="130" t="s">
+      <c r="H20" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="132"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="131"/>
     </row>
     <row r="21" spans="2:11" ht="24.95" customHeight="1">
       <c r="B21" s="2">
@@ -8698,10 +9074,10 @@
       <c r="G21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="131"/>
     </row>
     <row r="22" spans="2:11" ht="91.5" customHeight="1">
       <c r="B22" s="2">
@@ -8711,7 +9087,7 @@
         <v>160</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22" s="55" t="s">
         <v>24</v>
@@ -8720,49 +9096,49 @@
       <c r="G22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="130" t="s">
+      <c r="H22" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
     </row>
     <row r="23" spans="2:11" s="63" customFormat="1" ht="91.5" customHeight="1">
       <c r="B23" s="2">
         <v>19</v>
       </c>
       <c r="C23" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="E23" s="61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H23" s="132" t="s">
         <v>259</v>
       </c>
-      <c r="H23" s="130" t="s">
-        <v>260</v>
-      </c>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
     </row>
     <row r="25" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
     </row>
     <row r="27" spans="2:11" ht="24.95" customHeight="1">
       <c r="C27" s="4" t="s">
@@ -8771,18 +9147,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="C25:K25"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
@@ -8796,6 +9160,18 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8829,36 +9205,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="110" t="s">
@@ -8879,25 +9255,25 @@
       <c r="G4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
-        <v>524</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="H4" s="122" t="s">
+        <v>511</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="E5" s="109" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -8905,421 +9281,431 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="E6" s="109" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+        <v>517</v>
+      </c>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="D7" s="109" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E7" s="109" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+        <v>517</v>
+      </c>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="109" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="E8" s="109" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+        <v>517</v>
+      </c>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="109" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E9" s="109" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+        <v>525</v>
+      </c>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="109" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="E10" s="109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+        <v>529</v>
+      </c>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="E11" s="109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+        <v>529</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="2:11" ht="33.75" customHeight="1">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="E12" s="109" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="H12" s="117" t="s">
-        <v>548</v>
-      </c>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
+        <v>534</v>
+      </c>
+      <c r="H12" s="116" t="s">
+        <v>535</v>
+      </c>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
     </row>
     <row r="13" spans="2:11" ht="49.5" customHeight="1">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="E13" s="109" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="H13" s="117" t="s">
-        <v>551</v>
-      </c>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
+        <v>534</v>
+      </c>
+      <c r="H13" s="116" t="s">
+        <v>538</v>
+      </c>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="109" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E14" s="109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="132"/>
+        <v>529</v>
+      </c>
+      <c r="H14" s="132"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="131"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E15" s="109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H15" s="130" t="s">
-        <v>556</v>
-      </c>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="132"/>
+        <v>529</v>
+      </c>
+      <c r="H15" s="132" t="s">
+        <v>543</v>
+      </c>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="131"/>
     </row>
     <row r="16" spans="2:11" ht="47.25" customHeight="1">
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="109" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="E16" s="109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="H16" s="130" t="s">
-        <v>560</v>
-      </c>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="132"/>
+        <v>546</v>
+      </c>
+      <c r="H16" s="132" t="s">
+        <v>547</v>
+      </c>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="131"/>
     </row>
     <row r="17" spans="2:11" ht="60" customHeight="1">
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E17" s="109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H17" s="130" t="s">
-        <v>563</v>
-      </c>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="132"/>
+        <v>529</v>
+      </c>
+      <c r="H17" s="132" t="s">
+        <v>550</v>
+      </c>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="131"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="109" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E18" s="109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H18" s="130" t="s">
-        <v>566</v>
-      </c>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="132"/>
+        <v>529</v>
+      </c>
+      <c r="H18" s="132" t="s">
+        <v>553</v>
+      </c>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="131"/>
     </row>
     <row r="19" spans="2:11" ht="87.75" customHeight="1">
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="109" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="E19" s="109" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="H19" s="130" t="s">
-        <v>569</v>
-      </c>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="132"/>
+        <v>534</v>
+      </c>
+      <c r="H19" s="132" t="s">
+        <v>556</v>
+      </c>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
     </row>
     <row r="20" spans="2:11" ht="95.25" customHeight="1">
       <c r="B20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="109" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="E20" s="109" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="H20" s="130" t="s">
-        <v>572</v>
-      </c>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="132"/>
+        <v>534</v>
+      </c>
+      <c r="H20" s="132" t="s">
+        <v>559</v>
+      </c>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="131"/>
     </row>
     <row r="21" spans="2:11" ht="24.95" customHeight="1">
       <c r="B21" s="2">
         <v>17</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="E21" s="109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
+        <v>529</v>
+      </c>
+      <c r="H21" s="132"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="131"/>
     </row>
     <row r="22" spans="2:11" ht="24.95" customHeight="1">
       <c r="B22" s="2">
         <v>18</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="E22" s="109" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
+        <v>564</v>
+      </c>
+      <c r="H22" s="132"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C24" s="116" t="s">
-        <v>578</v>
-      </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
+      <c r="C24" s="115" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
     </row>
     <row r="26" spans="2:11" ht="24.95" customHeight="1">
       <c r="C26" s="4" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H17:K17"/>
@@ -9334,16 +9720,6 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9377,36 +9753,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124" t="s">
         <v>350</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125" t="s">
-        <v>351</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="86" t="s">
@@ -9427,12 +9803,12 @@
       <c r="G4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -9453,10 +9829,10 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
@@ -9475,10 +9851,10 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -9488,7 +9864,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E7" s="85" t="s">
         <v>24</v>
@@ -9497,10 +9873,10 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -9519,20 +9895,20 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="50.25" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="88" t="s">
         <v>313</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>314</v>
       </c>
       <c r="E9" s="85" t="s">
         <v>17</v>
@@ -9541,25 +9917,25 @@
       <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="117" t="s">
-        <v>317</v>
-      </c>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="C13" s="4" t="s">
@@ -9568,17 +9944,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C11:K11"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9612,49 +9988,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="122" t="s">
         <v>384</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="94" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="94" t="s">
         <v>387</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="D4" s="94" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="E4" s="94" t="s">
         <v>389</v>
-      </c>
-      <c r="E4" s="94" t="s">
-        <v>390</v>
       </c>
       <c r="F4" s="94" t="s">
         <v>0</v>
@@ -9662,25 +10038,25 @@
       <c r="G4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
-        <v>391</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="H4" s="122" t="s">
+        <v>390</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="93" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="93" t="s">
         <v>392</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>392</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>393</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -9688,293 +10064,287 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="93" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="93" t="s">
         <v>394</v>
       </c>
-      <c r="D6" s="93" t="s">
-        <v>395</v>
-      </c>
       <c r="E6" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H6" s="117" t="s">
         <v>396</v>
       </c>
-      <c r="H6" s="118" t="s">
-        <v>397</v>
-      </c>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="93" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="93" t="s">
         <v>398</v>
       </c>
-      <c r="D7" s="93" t="s">
-        <v>399</v>
-      </c>
       <c r="E7" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+        <v>395</v>
+      </c>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="93" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="93" t="s">
         <v>400</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="E8" s="93" t="s">
         <v>401</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>402</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+        <v>395</v>
+      </c>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="93" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="93" t="s">
         <v>403</v>
       </c>
-      <c r="D9" s="93" t="s">
-        <v>404</v>
-      </c>
       <c r="E9" s="93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+        <v>395</v>
+      </c>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="48" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="93" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" s="93" t="s">
         <v>405</v>
       </c>
-      <c r="D10" s="93" t="s">
-        <v>406</v>
-      </c>
       <c r="E10" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H10" s="138" t="s">
-        <v>580</v>
-      </c>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+        <v>406</v>
+      </c>
+      <c r="H10" s="136" t="s">
+        <v>567</v>
+      </c>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="93" t="s">
+        <v>407</v>
+      </c>
+      <c r="D11" s="93" t="s">
         <v>408</v>
       </c>
-      <c r="D11" s="93" t="s">
-        <v>409</v>
-      </c>
       <c r="E11" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+        <v>406</v>
+      </c>
+      <c r="H11" s="116"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="2:11" ht="83.25" customHeight="1">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="93" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="93" t="s">
         <v>410</v>
       </c>
-      <c r="D12" s="93" t="s">
-        <v>411</v>
-      </c>
       <c r="E12" s="93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H12" s="116" t="s">
         <v>412</v>
       </c>
-      <c r="H12" s="117" t="s">
-        <v>413</v>
-      </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="93" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" s="93" t="s">
         <v>414</v>
       </c>
-      <c r="D13" s="93" t="s">
-        <v>415</v>
-      </c>
       <c r="E13" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H13" s="117" t="s">
-        <v>416</v>
-      </c>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
+        <v>406</v>
+      </c>
+      <c r="H13" s="116" t="s">
+        <v>415</v>
+      </c>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="93" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="93" t="s">
         <v>417</v>
       </c>
-      <c r="D14" s="93" t="s">
-        <v>418</v>
-      </c>
       <c r="E14" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H14" s="117" t="s">
-        <v>419</v>
-      </c>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
+        <v>406</v>
+      </c>
+      <c r="H14" s="116" t="s">
+        <v>418</v>
+      </c>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
     </row>
     <row r="15" spans="2:11" ht="105" customHeight="1">
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="93" t="s">
+        <v>419</v>
+      </c>
+      <c r="D15" s="93" t="s">
         <v>420</v>
       </c>
-      <c r="D15" s="93" t="s">
-        <v>421</v>
-      </c>
       <c r="E15" s="93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="117" t="s">
-        <v>427</v>
-      </c>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
+      <c r="H15" s="116" t="s">
+        <v>426</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="93" t="s">
         <v>422</v>
       </c>
-      <c r="D16" s="93" t="s">
-        <v>423</v>
-      </c>
       <c r="E16" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H16" s="117" t="s">
+        <v>406</v>
+      </c>
+      <c r="H16" s="116" t="s">
+        <v>423</v>
+      </c>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+    </row>
+    <row r="18" spans="3:11" ht="24.95" customHeight="1">
+      <c r="C18" s="115" t="s">
         <v>424</v>
       </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-    </row>
-    <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="116" t="s">
-        <v>425</v>
-      </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
     </row>
     <row r="20" spans="3:11" ht="24.95" customHeight="1">
       <c r="C20" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="H8:K8"/>
@@ -9987,6 +10357,12 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10020,49 +10396,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="122" t="s">
         <v>439</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
         <v>440</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
-        <v>441</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="96" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="96" t="s">
         <v>442</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="D4" s="96" t="s">
         <v>443</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="E4" s="96" t="s">
         <v>444</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>445</v>
       </c>
       <c r="F4" s="96" t="s">
         <v>0</v>
@@ -10070,12 +10446,12 @@
       <c r="G4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
-        <v>446</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="H4" s="122" t="s">
+        <v>445</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -10088,7 +10464,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -10096,20 +10472,20 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="95" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="95" t="s">
         <v>394</v>
-      </c>
-      <c r="D6" s="95" t="s">
-        <v>395</v>
       </c>
       <c r="E6" s="95" t="s">
         <v>24</v>
@@ -10118,12 +10494,12 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="118" t="s">
-        <v>397</v>
-      </c>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117" t="s">
+        <v>396</v>
+      </c>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -10133,7 +10509,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="95" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E7" s="95" t="s">
         <v>24</v>
@@ -10142,10 +10518,10 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -10164,20 +10540,20 @@
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="66" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="95" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" s="95" t="s">
         <v>429</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>430</v>
       </c>
       <c r="E9" s="95" t="s">
         <v>17</v>
@@ -10186,22 +10562,22 @@
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="117" t="s">
-        <v>448</v>
-      </c>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="116" t="s">
+        <v>447</v>
+      </c>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D10" s="95" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E10" s="95" t="s">
         <v>24</v>
@@ -10210,12 +10586,12 @@
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="117" t="s">
-        <v>432</v>
-      </c>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="H10" s="116" t="s">
+        <v>431</v>
+      </c>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
@@ -10225,7 +10601,7 @@
         <v>98</v>
       </c>
       <c r="D11" s="95" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E11" s="95" t="s">
         <v>24</v>
@@ -10234,22 +10610,22 @@
       <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="117" t="s">
-        <v>432</v>
-      </c>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+      <c r="H11" s="116" t="s">
+        <v>431</v>
+      </c>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E12" s="95" t="s">
         <v>24</v>
@@ -10258,22 +10634,22 @@
       <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="139" t="s">
-        <v>454</v>
-      </c>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
+      <c r="H12" s="137" t="s">
+        <v>453</v>
+      </c>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="95" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D13" s="95" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E13" s="95" t="s">
         <v>24</v>
@@ -10282,22 +10658,22 @@
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="117" t="s">
-        <v>433</v>
-      </c>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
+      <c r="H13" s="116" t="s">
+        <v>432</v>
+      </c>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
     </row>
     <row r="14" spans="2:11" ht="81" customHeight="1">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="D14" s="95" t="s">
         <v>435</v>
-      </c>
-      <c r="D14" s="95" t="s">
-        <v>436</v>
       </c>
       <c r="E14" s="95" t="s">
         <v>17</v>
@@ -10306,22 +10682,22 @@
       <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="117" t="s">
-        <v>455</v>
-      </c>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
+      <c r="H14" s="116" t="s">
+        <v>454</v>
+      </c>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
     </row>
     <row r="15" spans="2:11" ht="88.5" customHeight="1">
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="95" t="s">
+        <v>436</v>
+      </c>
+      <c r="D15" s="95" t="s">
         <v>437</v>
-      </c>
-      <c r="D15" s="95" t="s">
-        <v>438</v>
       </c>
       <c r="E15" s="95" t="s">
         <v>17</v>
@@ -10330,12 +10706,12 @@
       <c r="G15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="130" t="s">
-        <v>452</v>
-      </c>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="132"/>
+      <c r="H15" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="131"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
       <c r="B16" s="2">
@@ -10354,25 +10730,25 @@
       <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="130" t="s">
-        <v>453</v>
-      </c>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="132"/>
+      <c r="H16" s="132" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="131"/>
     </row>
     <row r="18" spans="3:11" ht="24.95" customHeight="1">
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
     </row>
     <row r="20" spans="3:11" ht="24.95" customHeight="1">
       <c r="C20" s="4" t="s">
@@ -10381,12 +10757,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
@@ -10399,6 +10769,12 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10432,36 +10808,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="11" t="s">
@@ -10482,12 +10858,12 @@
       <c r="G4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -10508,10 +10884,10 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
@@ -10530,10 +10906,10 @@
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -10552,10 +10928,10 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -10574,10 +10950,10 @@
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
     </row>
     <row r="9" spans="2:11" s="13" customFormat="1" ht="24.95" customHeight="1">
       <c r="B9" s="2">
@@ -10596,25 +10972,25 @@
       <c r="G9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="129" t="s">
+      <c r="H9" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="C13" s="7" t="s">
@@ -10646,6 +11022,193 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="111" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="111" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="111" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="111" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="111" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="111" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="111" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="111" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="111"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>572</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C9" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C11" location="一览表!A1" display="返回首页"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -10667,36 +11230,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
-        <v>582</v>
-      </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>568</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="43" t="s">
@@ -10717,12 +11280,12 @@
       <c r="G4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -10743,10 +11306,10 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
@@ -10765,10 +11328,10 @@
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -10787,10 +11350,10 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -10809,10 +11372,10 @@
       <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
@@ -10831,10 +11394,10 @@
       <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
@@ -10853,10 +11416,10 @@
       <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
@@ -10875,302 +11438,23 @@
       <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-    </row>
-    <row r="15" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C15" location="一览表!A1" display="返回首页"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="60" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="60" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="60" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="60" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="60" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="60"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
-    </row>
-    <row r="5" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-    </row>
-    <row r="7" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-    </row>
-    <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-    </row>
-    <row r="9" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-    </row>
-    <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B10" s="2">
-        <v>6</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-    </row>
-    <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B11" s="2">
-        <v>7</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-    </row>
-    <row r="13" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C13" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="C15" s="4" t="s">
@@ -11225,49 +11509,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="122" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
-        <v>324</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="D4" s="80" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="E4" s="80" t="s">
         <v>327</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>328</v>
       </c>
       <c r="F4" s="80" t="s">
         <v>0</v>
@@ -11275,25 +11559,25 @@
       <c r="G4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
-        <v>329</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="H4" s="122" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="79" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5" s="79" t="s">
         <v>330</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>331</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -11301,159 +11585,159 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="79" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="79" t="s">
-        <v>333</v>
-      </c>
       <c r="E6" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+        <v>333</v>
+      </c>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="79" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="79" t="s">
-        <v>336</v>
-      </c>
       <c r="E7" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+        <v>333</v>
+      </c>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+        <v>333</v>
+      </c>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="79" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="79" t="s">
         <v>339</v>
       </c>
-      <c r="D9" s="79" t="s">
-        <v>340</v>
-      </c>
       <c r="E9" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+        <v>337</v>
+      </c>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="D10" s="79" t="s">
-        <v>342</v>
-      </c>
       <c r="E10" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+        <v>337</v>
+      </c>
+      <c r="H10" s="116"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" s="82" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="E11" s="83" t="s">
         <v>347</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>348</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+        <v>348</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C13" s="116" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
+      <c r="C13" s="115" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="C15" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -11489,90 +11773,90 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="89" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="60" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="89" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="89" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="60" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="89" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="89" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="89" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="89" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="89"/>
+    <col min="8" max="8" width="11" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
-        <v>355</v>
-      </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="B2" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="B3" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>360</v>
-      </c>
-      <c r="E4" s="91" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" s="91" t="s">
+      <c r="B4" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
-        <v>362</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="H4" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="90" t="s">
-        <v>363</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>364</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>365</v>
+      <c r="C5" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -11580,159 +11864,159 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="90" t="s">
-        <v>366</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>367</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>368</v>
+      <c r="C6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="90" t="s">
-        <v>369</v>
-      </c>
-      <c r="D7" s="90" t="s">
-        <v>370</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>371</v>
+      <c r="C7" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+        <v>12</v>
+      </c>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="90" t="s">
-        <v>373</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>368</v>
+      <c r="C8" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="90" t="s">
-        <v>375</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>376</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>368</v>
+      <c r="C9" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="90" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>378</v>
-      </c>
-      <c r="E10" s="90" t="s">
-        <v>368</v>
+      <c r="C10" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="90" t="s">
-        <v>379</v>
+      <c r="C11" s="58" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E11" s="90" t="s">
-        <v>371</v>
+        <v>148</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+        <v>19</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C13" s="116" t="s">
-        <v>382</v>
-      </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
+      <c r="C13" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="C15" s="4" t="s">
-        <v>383</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -11768,90 +12052,90 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="107" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="89" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="107" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="107" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="89" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="89" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="89" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="107" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="107" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="107" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="107" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="107"/>
+    <col min="8" max="8" width="11" style="89" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="89" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="89" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="89" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="89"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
-        <v>584</v>
-      </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="B2" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
-        <v>511</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="B3" s="122" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="106" t="s">
+      <c r="B4" s="91" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="H4" s="122" t="s">
+        <v>361</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="105" t="s">
-        <v>24</v>
+      <c r="C5" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>364</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -11859,159 +12143,159 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="105" t="s">
-        <v>24</v>
+      <c r="C6" s="90" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>367</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>17</v>
+      <c r="C7" s="90" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>370</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+        <v>371</v>
+      </c>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="105" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="105" t="s">
-        <v>24</v>
+      <c r="C8" s="90" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>367</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="105" t="s">
-        <v>24</v>
+      <c r="C9" s="90" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>367</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="105" t="s">
-        <v>24</v>
+      <c r="C10" s="90" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="90" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>367</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="105" t="s">
-        <v>15</v>
+      <c r="C11" s="90" t="s">
+        <v>378</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="105" t="s">
-        <v>17</v>
+        <v>379</v>
+      </c>
+      <c r="E11" s="90" t="s">
+        <v>370</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+        <v>380</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C13" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
+      <c r="C13" s="115" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -12047,89 +12331,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="98" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="107" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="98" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="98" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="107" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="107" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="107" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="98" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="98" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="98" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="98"/>
+    <col min="8" max="8" width="11" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="107" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="107" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="107"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
-        <v>585</v>
-      </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>570</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
-        <v>456</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
+        <v>510</v>
+      </c>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="105" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -12138,155 +12422,155 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="105" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="105" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="105" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="105" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="105" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="105" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="105" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="C15" s="4" t="s">
@@ -12326,6 +12610,285 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="3.625" style="98" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="98" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="98" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="98" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="98" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="98" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B2" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>571</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B4" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
+    </row>
+    <row r="5" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+    </row>
+    <row r="8" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+    </row>
+    <row r="9" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+    </row>
+    <row r="10" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+    </row>
+    <row r="11" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+    </row>
+    <row r="13" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C13" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+    </row>
+    <row r="15" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C15" location="一览表!A1" display="返回首页"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
     <col min="1" max="1" width="3.625" style="31" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" style="31" customWidth="1"/>
@@ -12341,36 +12904,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
-        <v>583</v>
-      </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>569</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="30" t="s">
@@ -12391,12 +12954,12 @@
       <c r="G4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -12417,10 +12980,10 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
@@ -12439,10 +13002,10 @@
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -12461,10 +13024,10 @@
       <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -12483,10 +13046,10 @@
       <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
@@ -12505,10 +13068,10 @@
       <c r="G9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
@@ -12527,10 +13090,10 @@
       <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" s="34" customFormat="1" ht="24.95" customHeight="1">
       <c r="B11" s="2">
@@ -12549,23 +13112,23 @@
       <c r="G11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="C15" s="4" t="s">
@@ -12574,12 +13137,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C13:K13"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="H6:K6"/>
@@ -12587,6 +13144,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -12620,36 +13183,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -12670,12 +13233,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -12696,10 +13259,10 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
@@ -12718,10 +13281,10 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -12740,10 +13303,10 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -12762,47 +13325,47 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" s="75" customFormat="1" ht="50.25" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="76" t="s">
         <v>313</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="E9" s="74" t="s">
         <v>314</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>315</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="116" t="s">
         <v>316</v>
       </c>
-      <c r="H9" s="117" t="s">
-        <v>317</v>
-      </c>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
       <c r="C13" s="4" t="s">
@@ -12855,36 +13418,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="21" t="s">
@@ -12905,12 +13468,12 @@
       <c r="G4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -12931,10 +13494,10 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
@@ -12953,10 +13516,10 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -12975,10 +13538,10 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -12997,10 +13560,10 @@
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
@@ -13019,10 +13582,10 @@
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
@@ -13041,10 +13604,10 @@
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
@@ -13063,10 +13626,10 @@
       <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="2">
@@ -13085,12 +13648,12 @@
       <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="118" t="s">
+      <c r="H12" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="87.75" customHeight="1">
       <c r="B13" s="2">
@@ -13109,12 +13672,12 @@
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="117" t="s">
-        <v>188</v>
-      </c>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
+      <c r="H13" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
       <c r="B14" s="2">
@@ -13133,10 +13696,10 @@
       <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="B15" s="2">
@@ -13158,9 +13721,9 @@
       <c r="H15" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
     </row>
     <row r="16" spans="2:11" s="44" customFormat="1" ht="24.95" customHeight="1">
       <c r="B16" s="2">
@@ -13182,9 +13745,9 @@
       <c r="H16" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
     </row>
     <row r="17" spans="2:11" s="24" customFormat="1" ht="82.5" customHeight="1">
       <c r="B17" s="2">
@@ -13203,12 +13766,12 @@
       <c r="G17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="117" t="s">
+      <c r="H17" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
     </row>
     <row r="18" spans="2:11" s="26" customFormat="1" ht="59.25" customHeight="1">
       <c r="B18" s="2">
@@ -13227,12 +13790,12 @@
       <c r="G18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="130" t="s">
+      <c r="H18" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="132"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="131"/>
     </row>
     <row r="19" spans="2:11" s="26" customFormat="1" ht="54" customHeight="1">
       <c r="B19" s="2">
@@ -13251,12 +13814,12 @@
       <c r="G19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="132"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
     </row>
     <row r="20" spans="2:11" s="28" customFormat="1" ht="24.95" customHeight="1">
       <c r="B20" s="2">
@@ -13275,10 +13838,10 @@
       <c r="G20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="131"/>
     </row>
     <row r="21" spans="2:11" s="32" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="2">
@@ -13297,10 +13860,10 @@
       <c r="G21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="131"/>
     </row>
     <row r="22" spans="2:11" s="37" customFormat="1" ht="41.25" customHeight="1">
       <c r="B22" s="2">
@@ -13319,12 +13882,12 @@
       <c r="G22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="130" t="s">
+      <c r="H22" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
     </row>
     <row r="23" spans="2:11" s="39" customFormat="1" ht="91.5" customHeight="1">
       <c r="B23" s="2">
@@ -13343,49 +13906,49 @@
       <c r="G23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="130" t="s">
+      <c r="H23" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="132"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
     </row>
     <row r="24" spans="2:11" s="78" customFormat="1" ht="24.95" customHeight="1">
       <c r="B24" s="2">
         <v>20</v>
       </c>
       <c r="C24" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="77" t="s">
         <v>319</v>
-      </c>
-      <c r="E24" s="77" t="s">
-        <v>320</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H24" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="H24" s="134" t="s">
-        <v>322</v>
-      </c>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="132"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
     </row>
     <row r="26" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
     </row>
     <row r="28" spans="2:11" ht="24.95" customHeight="1">
       <c r="C28" s="4" t="s">
@@ -13394,6 +13957,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H16:K16"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H22:K22"/>
@@ -13410,16 +13983,6 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13453,36 +14016,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="102" t="s">
@@ -13503,25 +14066,25 @@
       <c r="G4" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
-        <v>457</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="H4" s="122" t="s">
+        <v>456</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="101" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="101" t="s">
         <v>458</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>458</v>
-      </c>
-      <c r="E5" s="101" t="s">
-        <v>459</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -13529,377 +14092,383 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="101" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="101" t="s">
         <v>460</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="E6" s="101" t="s">
         <v>461</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>462</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+        <v>462</v>
+      </c>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="101" t="s">
+        <v>463</v>
+      </c>
+      <c r="D7" s="101" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="101" t="s">
-        <v>465</v>
-      </c>
       <c r="E7" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+        <v>462</v>
+      </c>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="101" t="s">
+        <v>465</v>
+      </c>
+      <c r="D8" s="101" t="s">
         <v>466</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="E8" s="101" t="s">
         <v>467</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>468</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+        <v>468</v>
+      </c>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="101" t="s">
+        <v>469</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="E9" s="101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+        <v>468</v>
+      </c>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="101" t="s">
+        <v>471</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="101" t="s">
         <v>473</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>474</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+        <v>474</v>
+      </c>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="101" t="s">
+        <v>475</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>477</v>
-      </c>
       <c r="E11" s="101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+        <v>474</v>
+      </c>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
+        <v>474</v>
+      </c>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="33.75" customHeight="1">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="101" t="s">
+        <v>478</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="101" t="s">
         <v>480</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>481</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H13" s="116" t="s">
         <v>482</v>
       </c>
-      <c r="H13" s="117" t="s">
-        <v>483</v>
-      </c>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
     </row>
     <row r="14" spans="2:11" ht="81.75" customHeight="1">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="101" t="s">
+        <v>483</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>485</v>
-      </c>
       <c r="E14" s="101" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H14" s="117" t="s">
-        <v>486</v>
-      </c>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
+        <v>481</v>
+      </c>
+      <c r="H14" s="116" t="s">
+        <v>485</v>
+      </c>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
     </row>
     <row r="15" spans="2:11" ht="69" customHeight="1">
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="101" t="s">
+        <v>486</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="E15" s="101" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H15" s="130" t="s">
-        <v>489</v>
-      </c>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="132"/>
+        <v>481</v>
+      </c>
+      <c r="H15" s="132" t="s">
+        <v>488</v>
+      </c>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="131"/>
     </row>
     <row r="16" spans="2:11" ht="80.25" customHeight="1">
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="101" t="s">
+        <v>489</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="101" t="s">
         <v>491</v>
-      </c>
-      <c r="E16" s="101" t="s">
-        <v>492</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H16" s="132" t="s">
         <v>493</v>
       </c>
-      <c r="H16" s="130" t="s">
-        <v>494</v>
-      </c>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="132"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="131"/>
     </row>
     <row r="17" spans="2:11" ht="24.95" customHeight="1">
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="101" t="s">
+        <v>494</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="E17" s="101" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H17" s="130" t="s">
-        <v>497</v>
-      </c>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="132"/>
+        <v>474</v>
+      </c>
+      <c r="H17" s="132" t="s">
+        <v>496</v>
+      </c>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="131"/>
     </row>
     <row r="18" spans="2:11" ht="24.95" customHeight="1">
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="101" t="s">
+        <v>497</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>499</v>
-      </c>
       <c r="E18" s="101" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H18" s="130" t="s">
-        <v>500</v>
-      </c>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="132"/>
+        <v>481</v>
+      </c>
+      <c r="H18" s="132" t="s">
+        <v>499</v>
+      </c>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="131"/>
     </row>
     <row r="19" spans="2:11" ht="24.95" customHeight="1">
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="101" t="s">
+        <v>500</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>502</v>
-      </c>
       <c r="E19" s="101" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H19" s="130" t="s">
-        <v>503</v>
-      </c>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="132"/>
+        <v>481</v>
+      </c>
+      <c r="H19" s="132" t="s">
+        <v>502</v>
+      </c>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
     </row>
     <row r="20" spans="2:11" ht="60.75" customHeight="1">
       <c r="B20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E20" s="101" t="s">
         <v>504</v>
-      </c>
-      <c r="E20" s="101" t="s">
-        <v>505</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H20" s="132" t="s">
         <v>506</v>
       </c>
-      <c r="H20" s="130" t="s">
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="131"/>
+    </row>
+    <row r="22" spans="2:11" ht="24.95" customHeight="1">
+      <c r="C22" s="115" t="s">
         <v>507</v>
       </c>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="132"/>
-    </row>
-    <row r="22" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C22" s="116" t="s">
-        <v>508</v>
-      </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
       <c r="C24" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="C22:K22"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
@@ -13916,12 +14485,6 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13955,36 +14518,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="19" t="s">
@@ -14005,12 +14568,12 @@
       <c r="G4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -14031,10 +14594,10 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
@@ -14053,10 +14616,10 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -14075,10 +14638,10 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -14097,23 +14660,23 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="C12" s="7" t="s">
@@ -14165,36 +14728,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="19" t="s">
@@ -14215,12 +14778,12 @@
       <c r="G4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -14241,10 +14804,10 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
@@ -14263,10 +14826,10 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -14285,10 +14848,10 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -14307,10 +14870,10 @@
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="24.95" customHeight="1">
       <c r="B9" s="2">
@@ -14329,10 +14892,10 @@
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
@@ -14351,10 +14914,10 @@
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
@@ -14373,23 +14936,23 @@
       <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
     </row>
     <row r="15" spans="2:11" ht="24.95" customHeight="1">
       <c r="C15" s="4" t="s">
@@ -14398,12 +14961,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="H8:K8"/>
@@ -14411,6 +14968,12 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -14444,36 +15007,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="49" t="s">
@@ -14494,12 +15057,12 @@
       <c r="G4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
@@ -14520,10 +15083,10 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
@@ -14542,10 +15105,10 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
@@ -14564,10 +15127,10 @@
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
@@ -14586,23 +15149,23 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="C12" s="7" t="s">
@@ -14654,49 +15217,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="2:11" ht="24.95" customHeight="1">
+      <c r="B3" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B3" s="123" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="128" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="129" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="127"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" ht="24.95" customHeight="1">
       <c r="B4" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="D4" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="E4" s="65" t="s">
         <v>268</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>269</v>
       </c>
       <c r="F4" s="65" t="s">
         <v>0</v>
@@ -14704,25 +15267,25 @@
       <c r="G4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="123" t="s">
-        <v>270</v>
-      </c>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="124"/>
+      <c r="H4" s="122" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="2:11" ht="24.95" customHeight="1">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="64" t="s">
         <v>271</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>272</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -14730,235 +15293,235 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="24.95" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="E6" s="64" t="s">
         <v>274</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>275</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+        <v>275</v>
+      </c>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="64" t="s">
         <v>277</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>308</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>278</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+        <v>275</v>
+      </c>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="64" t="s">
-        <v>280</v>
-      </c>
       <c r="E8" s="64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+        <v>275</v>
+      </c>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="2:11" ht="85.5" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="E9" s="64" t="s">
         <v>282</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>283</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="H9" s="130" t="s">
-        <v>285</v>
-      </c>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="127"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="10" spans="2:11" ht="24.95" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>287</v>
-      </c>
       <c r="E10" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H10" s="130" t="s">
-        <v>288</v>
-      </c>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
+        <v>283</v>
+      </c>
+      <c r="H10" s="132" t="s">
+        <v>287</v>
+      </c>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
     </row>
     <row r="11" spans="2:11" ht="24.95" customHeight="1">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="64" t="s">
-        <v>290</v>
-      </c>
       <c r="E11" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="132"/>
+        <v>290</v>
+      </c>
+      <c r="H11" s="132"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="131"/>
     </row>
     <row r="12" spans="2:11" ht="24.95" customHeight="1">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="E12" s="64" t="s">
         <v>293</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>294</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H12" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="H12" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="132"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="131"/>
     </row>
     <row r="13" spans="2:11" ht="53.25" customHeight="1">
       <c r="B13" s="2">
         <v>8</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H13" s="132" t="s">
         <v>298</v>
       </c>
-      <c r="H13" s="130" t="s">
-        <v>299</v>
-      </c>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="132"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="131"/>
     </row>
     <row r="14" spans="2:11" s="71" customFormat="1" ht="46.9" customHeight="1">
       <c r="B14" s="2">
         <v>9</v>
       </c>
       <c r="C14" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="73" t="s">
         <v>309</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>310</v>
       </c>
       <c r="E14" s="72" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H14" s="129" t="s">
         <v>311</v>
       </c>
-      <c r="H14" s="134" t="s">
-        <v>312</v>
-      </c>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="132"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="131"/>
     </row>
     <row r="16" spans="2:11" ht="24.95" customHeight="1">
-      <c r="C16" s="116" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
+      <c r="C16" s="115" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
     </row>
     <row r="18" spans="3:3" ht="24.95" customHeight="1">
       <c r="C18" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
